--- a/Resolutions.xlsx
+++ b/Resolutions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300"/>
+    <workbookView windowWidth="23040" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>Run</t>
   </si>
@@ -50,136 +50,100 @@
     <t>Figma Node Id</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>About_Us.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://designs.creoforma.co.uk/about-us/ </t>
+  </si>
+  <si>
+    <t>figd_ch0K1gptWiosiHv9ZZ690t4IiWsqR2-eCrk-aawf</t>
+  </si>
+  <si>
+    <t>CFVY6OrfzVcq2zXtguTuir</t>
+  </si>
+  <si>
+    <t>66-3558</t>
+  </si>
+  <si>
+    <t>All_Products.png</t>
+  </si>
+  <si>
+    <t>https://designs.creoforma.co.uk/shop/</t>
+  </si>
+  <si>
+    <t>37-1059</t>
+  </si>
+  <si>
+    <t>Blogs.png</t>
+  </si>
+  <si>
+    <t>https://designs.creoforma.co.uk/blogs/</t>
+  </si>
+  <si>
+    <t>85-334</t>
+  </si>
+  <si>
+    <t>Contact_Us.png</t>
+  </si>
+  <si>
+    <t>https://designs.creoforma.co.uk/contact-us/</t>
+  </si>
+  <si>
+    <t>85-166</t>
+  </si>
+  <si>
+    <t>Singular_Blog.png</t>
+  </si>
+  <si>
+    <t>https://designs.creoforma.co.uk/experience-the-power-of-digital-printing-2/</t>
+  </si>
+  <si>
+    <t>85-818</t>
+  </si>
+  <si>
+    <t>Homepage_Canvas.png</t>
+  </si>
+  <si>
+    <t>https://designs.creoforma.co.uk/</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
-    <t>Desktop</t>
-  </si>
-  <si>
-    <t>Lilt_Desktop_Homepage.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/</t>
-  </si>
-  <si>
-    <t>figd_Z7DHrziinwDEboThuRI94m2d0KFKlpT3Kj3cOLjw</t>
-  </si>
-  <si>
-    <t>HgLzMdSDrs1JTRNbM2qC6Z</t>
-  </si>
-  <si>
-    <t>1028-17</t>
-  </si>
-  <si>
-    <t>aboutuspage.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/about-us</t>
-  </si>
-  <si>
-    <t>2070-19891</t>
-  </si>
-  <si>
-    <t>Category.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/shop/dining-table.html</t>
-  </si>
-  <si>
-    <t>1246-1742</t>
-  </si>
-  <si>
-    <t>Contactus.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/contact</t>
-  </si>
-  <si>
-    <t>1299-3010</t>
-  </si>
-  <si>
-    <t>Productdetails.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/wizer-dining-table-with-10-chairs-included.html</t>
-  </si>
-  <si>
-    <t>1060-3416</t>
-  </si>
-  <si>
-    <t>FAQ.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/faqs</t>
-  </si>
-  <si>
-    <t>1199-1719</t>
-  </si>
-  <si>
-    <t>Storelocator.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/store-location</t>
-  </si>
-  <si>
-    <t>2342-31118</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Homepage_Mobile.png</t>
-  </si>
-  <si>
-    <t>1453-14860</t>
-  </si>
-  <si>
-    <t>Category_mobile.png</t>
-  </si>
-  <si>
-    <t>1348-16666</t>
-  </si>
-  <si>
-    <t>Product Details Page_mobile.png</t>
-  </si>
-  <si>
-    <t>1348-16936</t>
-  </si>
-  <si>
-    <t>About Us Page_mobile.png</t>
-  </si>
-  <si>
-    <t>2105-29093</t>
-  </si>
-  <si>
-    <t>FAQ_mobile.png</t>
-  </si>
-  <si>
-    <t>1544-20481</t>
-  </si>
-  <si>
-    <t>Contact Us_mobile.png</t>
-  </si>
-  <si>
-    <t>1563-16547</t>
-  </si>
-  <si>
-    <t>Store Locator_mobile.png</t>
-  </si>
-  <si>
-    <t>2421-50637</t>
-  </si>
-  <si>
-    <t>Login with phone_mobile.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/customer/account/login/</t>
-  </si>
-  <si>
-    <t>1544-20320</t>
+    <t>PDP_Delivery.png</t>
+  </si>
+  <si>
+    <t>PDP_Product_Overview.png</t>
+  </si>
+  <si>
+    <t>https://designs.creoforma.co.uk/product/aluminium-signs/</t>
+  </si>
+  <si>
+    <t>41-2074</t>
+  </si>
+  <si>
+    <t>PDP_Template.png</t>
+  </si>
+  <si>
+    <t>PDP_Template_R.png</t>
+  </si>
+  <si>
+    <t>Signage.png</t>
+  </si>
+  <si>
+    <t>https://designs.creoforma.co.uk/product-category/signage/</t>
+  </si>
+  <si>
+    <t>45-2397</t>
   </si>
 </sst>
 </file>
@@ -192,7 +156,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,9 +165,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8.25"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -663,144 +641,147 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,13 +841,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1129,20 +1103,20 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.6285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="22.6296296296296" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.38095238095238" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.42857142857143" style="2" customWidth="1"/>
-    <col min="3" max="3" width="55" style="2" customWidth="1"/>
-    <col min="4" max="4" width="64.5714285714286" style="2" customWidth="1"/>
-    <col min="5" max="5" width="59.4285714285714" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.6285714285714" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.5047619047619" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="22.6285714285714" style="2"/>
+    <col min="1" max="1" width="4.37962962962963" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.42592592592593" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="64.5740740740741" style="2" customWidth="1"/>
+    <col min="5" max="5" width="59.4259259259259" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.5092592592593" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="22.6296296296296" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1169,7 +1143,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1181,7 +1155,7 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1192,7 +1166,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1201,10 +1175,10 @@
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1215,7 +1189,7 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1224,10 +1198,10 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1238,7 +1212,7 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1247,10 +1221,10 @@
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1261,7 +1235,7 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1270,10 +1244,10 @@
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1284,7 +1258,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1293,225 +1267,132 @@
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
+    <row r="8" s="1" customFormat="1" spans="1:4">
+      <c r="A8" t="s">
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" customFormat="1" spans="1:7">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:6">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:6">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:7">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:7">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
-      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" customFormat="1" spans="1:7">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:7">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:7">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:7">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:7">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>50</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="2:6">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" customFormat="1" spans="2:6">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" customFormat="1" spans="2:6">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" customFormat="1" spans="2:6">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" customFormat="1"/>
     <row r="18" customFormat="1"/>
@@ -1525,10 +1406,12 @@
     <row r="26" customFormat="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://lilt-sa.com/en/" tooltip="https://lilt-sa.com/en/"/>
-    <hyperlink ref="D8" r:id="rId2" display="https://lilt-sa.com/en/store-location"/>
-    <hyperlink ref="D9" r:id="rId1" display="https://lilt-sa.com/en/" tooltip="https://lilt-sa.com/en/"/>
-    <hyperlink ref="D15" r:id="rId2" display="https://lilt-sa.com/en/store-location"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://designs.creoforma.co.uk/about-us/ " tooltip="https://designs.creoforma.co.uk/about-us/ "/>
+    <hyperlink ref="D4" r:id="rId2" display="https://designs.creoforma.co.uk/blogs/" tooltip="https://designs.creoforma.co.uk/blogs/"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://designs.creoforma.co.uk/contact-us/" tooltip="https://designs.creoforma.co.uk/contact-us/"/>
+    <hyperlink ref="D7" r:id="rId4" display="https://designs.creoforma.co.uk/" tooltip="https://designs.creoforma.co.uk/"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://designs.creoforma.co.uk/experience-the-power-of-digital-printing-2/"/>
+    <hyperlink ref="D12" r:id="rId6" display="https://designs.creoforma.co.uk/product-category/signage/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
